--- a/instruction format.xlsx
+++ b/instruction format.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\source\repos\how-coding-should-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BB020E09-24EF-4E43-9D26-CCA8420C093F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108E35-0712-42DF-B55D-13AD86B77C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v1" sheetId="1" r:id="rId1"/>
-    <sheet name="v2 data types" sheetId="2" r:id="rId2"/>
-    <sheet name="v2 functions" sheetId="3" r:id="rId3"/>
-    <sheet name="v2 format" sheetId="4" r:id="rId4"/>
+    <sheet name="v2 data types" sheetId="2" r:id="rId1"/>
+    <sheet name="v2 functions" sheetId="3" r:id="rId2"/>
+    <sheet name="v2 format" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'v2 data types'!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'v2 format'!$A$1:$B$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'v2 functions'!$A$1:$B$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'v2 data types'!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'v2 format'!$A$1:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'v2 functions'!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,153 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>3 bits at the start
-indicate the start function</t>
-  </si>
-  <si>
-    <t>another 5 bits indicate special
-function inside start function</t>
-  </si>
-  <si>
-    <t>e few more bits indicate
-special function parameters</t>
-  </si>
-  <si>
-    <t>A 0 bit indicates that we have
-finished parsing in parameters</t>
-  </si>
-  <si>
-    <t>another 0 bit indicates that we have finished this variable and the process starts again</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what the
-processor
-sees</t>
-  </si>
-  <si>
-    <t>certain number of 0 bits to make the code 64 bit or 32 bit instructions</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>sets a place in memory
-with some data</t>
-  </si>
-  <si>
-    <t>adds 2 numbers</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>outputs data to a device</t>
-  </si>
-  <si>
-    <t>subtracts two numbers</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>runs code in memory</t>
-  </si>
-  <si>
-    <t>timeses 2 numbers</t>
-  </si>
-  <si>
-    <t>run if</t>
-  </si>
-  <si>
-    <t>square root</t>
-  </si>
-  <si>
-    <t>runs code in memory
-if a condition is try</t>
-  </si>
-  <si>
-    <t>square roots 2 numbers</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>gets data from memory</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>takes an input from a device</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>turns data to str format</t>
-  </si>
-  <si>
-    <t>multiline str</t>
-  </si>
-  <si>
-    <t>turns data to multi line str format</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>char</t>
   </si>
   <si>
-    <t>character like space or tab</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>turns data to int format</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>turns data to float format</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>ratio in percent</t>
-  </si>
-  <si>
     <t>list</t>
   </si>
   <si>
-    <t>turns data to list format</t>
-  </si>
-  <si>
-    <t>runs code in memory and
-returns the output</t>
-  </si>
-  <si>
-    <t>runs code in memory and
-returns the output if a parameter is met</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -195,9 +58,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>implementation in my language</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -234,9 +94,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t xml:space="preserve"> = bool TRUE</t>
-  </si>
-  <si>
     <t>key + Val</t>
   </si>
   <si>
@@ -373,12 +230,18 @@
   </si>
   <si>
     <t>list to exec</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = bool +</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,18 +380,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF81D41A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -613,48 +464,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="date" xfId="11"/>
-    <cellStyle name="Error" xfId="12"/>
-    <cellStyle name="Footnote" xfId="13"/>
+    <cellStyle name="date" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Error" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Footnote" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="14"/>
+    <cellStyle name="Heading" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="15"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,260 +805,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1"/>
-    <col min="7" max="64" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.40625" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="62" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>101</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>101000010010</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>101</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>101000010010</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C6" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -1226,230 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="62" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D14"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1457,96 +1036,96 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B16"/>
+  <autoFilter ref="A1:B16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -1556,213 +1135,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B3"/>
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I3:I11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I3:I11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Process, Decision, Subprocess, Start, End, Document, Data, Database, External Data, On-page reference, Off-page reference, Custom 1, Custom 2, Custom 3, Custom 4"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step ID" prompt="Enter a unique process step ID for each shape in the diagram." sqref="E2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step Description" prompt="Enter text for the process step that will appear in the shape." sqref="F2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Next Step ID" prompt="Enter the process step ID for the next step. Use commas to separate multiple next steps, such as &quot;P600,P700&quot;." sqref="G2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Connector Label" prompt="If desired, label the connector to the next step. Use commas to separate multiple next steps, such as &quot;Yes,No&quot;." sqref="H2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shape Type" prompt="Enter the type of shape you'd like each process step to use." sqref="I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alt Text" prompt="Alt Text helps people with visual impairments understand your diagram. Describe each process step." sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Employee ID" prompt="Enter a unique ID for each employee." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Enter the employee name to display in the shape." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Employee title/ role will be displayed on shape." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Manager ID" prompt="Enter the Employee ID of the manager. This ID must be present in the Employee ID column." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Role Type" prompt="Choose the role that best represents the employee. This changes the color on the shape." sqref="E4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E5:E9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step ID" prompt="Enter a unique process step ID for each shape in the diagram." sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step Description" prompt="Enter text for the process step that will appear in the shape." sqref="F2" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Next Step ID" prompt="Enter the process step ID for the next step. Use commas to separate multiple next steps, such as &quot;P600,P700&quot;." sqref="G2" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Connector Label" prompt="If desired, label the connector to the next step. Use commas to separate multiple next steps, such as &quot;Yes,No&quot;." sqref="H2" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shape Type" prompt="Enter the type of shape you'd like each process step to use." sqref="I2" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alt Text" prompt="Alt Text helps people with visual impairments understand your diagram. Describe each process step." sqref="J2" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Employee ID" prompt="Enter a unique ID for each employee." sqref="A4" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Enter the employee name to display in the shape." sqref="B4" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Employee title/ role will be displayed on shape." sqref="C4" xr:uid="{00000000-0002-0000-0300-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Manager ID" prompt="Enter the Employee ID of the manager. This ID must be present in the Employee ID column." sqref="D4" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Role Type" prompt="Choose the role that best represents the employee. This changes the color on the shape." sqref="E4" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E5:E9" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"Executive, Manager, Position, Assistant, Staff, Consultant, Vacancy"</formula1>
     </dataValidation>
   </dataValidations>

--- a/instruction format.xlsx
+++ b/instruction format.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\source\repos\how-coding-should-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108E35-0712-42DF-B55D-13AD86B77C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686D43A-A678-40CD-A21D-5CDDFE23D0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="32280" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v2 data types" sheetId="2" r:id="rId1"/>
-    <sheet name="v2 functions" sheetId="3" r:id="rId2"/>
-    <sheet name="v2 format" sheetId="4" r:id="rId3"/>
+    <sheet name="data types" sheetId="2" r:id="rId1"/>
+    <sheet name="functions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'v2 data types'!$A$1:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'v2 format'!$A$1:$B$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'v2 functions'!$A$1:$B$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">functions!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>char</t>
   </si>
@@ -212,24 +210,6 @@
   </si>
   <si>
     <t>complement</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>object def</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>code exec</t>
-  </si>
-  <si>
-    <t>list to exec</t>
   </si>
   <si>
     <t>implementation</t>
@@ -464,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -473,7 +453,6 @@
     <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -833,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
@@ -904,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
@@ -1033,7 +1012,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="A1:B16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1133,223 +1112,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I3:I11" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"Process, Decision, Subprocess, Start, End, Document, Data, Database, External Data, On-page reference, Off-page reference, Custom 1, Custom 2, Custom 3, Custom 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step ID" prompt="Enter a unique process step ID for each shape in the diagram." sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Process Step Description" prompt="Enter text for the process step that will appear in the shape." sqref="F2" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Next Step ID" prompt="Enter the process step ID for the next step. Use commas to separate multiple next steps, such as &quot;P600,P700&quot;." sqref="G2" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Connector Label" prompt="If desired, label the connector to the next step. Use commas to separate multiple next steps, such as &quot;Yes,No&quot;." sqref="H2" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shape Type" prompt="Enter the type of shape you'd like each process step to use." sqref="I2" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alt Text" prompt="Alt Text helps people with visual impairments understand your diagram. Describe each process step." sqref="J2" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Employee ID" prompt="Enter a unique ID for each employee." sqref="A4" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Enter the employee name to display in the shape." sqref="B4" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Employee title/ role will be displayed on shape." sqref="C4" xr:uid="{00000000-0002-0000-0300-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Manager ID" prompt="Enter the Employee ID of the manager. This ID must be present in the Employee ID column." sqref="D4" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Role Type" prompt="Choose the role that best represents the employee. This changes the color on the shape." sqref="E4" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E5:E9" xr:uid="{00000000-0002-0000-0300-00000C000000}">
-      <formula1>"Executive, Manager, Position, Assistant, Staff, Consultant, Vacancy"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>